--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Lama1-Itgb8.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Lama1-Itgb8.xlsx
@@ -534,10 +534,10 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.09358433333333334</v>
+        <v>0.01135533333333333</v>
       </c>
       <c r="H2">
-        <v>0.280753</v>
+        <v>0.034066</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -552,28 +552,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.1126243333333333</v>
+        <v>0.008446</v>
       </c>
       <c r="N2">
-        <v>0.337873</v>
+        <v>0.025338</v>
       </c>
       <c r="O2">
-        <v>0.01082936903163217</v>
+        <v>0.001125187475737063</v>
       </c>
       <c r="P2">
-        <v>0.01082936903163217</v>
+        <v>0.001125187475737063</v>
       </c>
       <c r="Q2">
-        <v>0.01053987315211111</v>
+        <v>9.590714533333334E-05</v>
       </c>
       <c r="R2">
-        <v>0.094858858369</v>
+        <v>0.000863164308</v>
       </c>
       <c r="S2">
-        <v>0.01082936903163217</v>
+        <v>0.001125187475737063</v>
       </c>
       <c r="T2">
-        <v>0.01082936903163217</v>
+        <v>0.001125187475737063</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,10 +596,10 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.09358433333333334</v>
+        <v>0.01135533333333333</v>
       </c>
       <c r="H3">
-        <v>0.280753</v>
+        <v>0.034066</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -617,25 +617,25 @@
         <v>3.323421</v>
       </c>
       <c r="N3">
-        <v>9.970263000000001</v>
+        <v>9.970262999999999</v>
       </c>
       <c r="O3">
-        <v>0.3195628457125253</v>
+        <v>0.4427506139949732</v>
       </c>
       <c r="P3">
-        <v>0.3195628457125253</v>
+        <v>0.4427506139949733</v>
       </c>
       <c r="Q3">
-        <v>0.311020138671</v>
+        <v>0.037738553262</v>
       </c>
       <c r="R3">
-        <v>2.799181248039</v>
+        <v>0.339646979358</v>
       </c>
       <c r="S3">
-        <v>0.3195628457125253</v>
+        <v>0.4427506139949732</v>
       </c>
       <c r="T3">
-        <v>0.3195628457125253</v>
+        <v>0.4427506139949733</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,10 +658,10 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.09358433333333334</v>
+        <v>0.01135533333333333</v>
       </c>
       <c r="H4">
-        <v>0.280753</v>
+        <v>0.034066</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.963852666666665</v>
+        <v>4.174437666666667</v>
       </c>
       <c r="N4">
-        <v>20.891558</v>
+        <v>12.523313</v>
       </c>
       <c r="O4">
-        <v>0.6696077852558425</v>
+        <v>0.5561241985292896</v>
       </c>
       <c r="P4">
-        <v>0.6696077852558425</v>
+        <v>0.5561241985292896</v>
       </c>
       <c r="Q4">
-        <v>0.6517075092415554</v>
+        <v>0.04740213118422223</v>
       </c>
       <c r="R4">
-        <v>5.865367583174</v>
+        <v>0.426619180658</v>
       </c>
       <c r="S4">
-        <v>0.6696077852558425</v>
+        <v>0.5561241985292896</v>
       </c>
       <c r="T4">
-        <v>0.6696077852558425</v>
+        <v>0.5561241985292896</v>
       </c>
     </row>
   </sheetData>
